--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Lama2-Rpsa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Lama2</t>
+  </si>
+  <si>
+    <t>Rpsa</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Lama2</t>
-  </si>
-  <si>
-    <t>Rpsa</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H2">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I2">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J2">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.73758233333333</v>
+        <v>156.53184</v>
       </c>
       <c r="N2">
-        <v>161.212747</v>
+        <v>469.59552</v>
       </c>
       <c r="O2">
-        <v>0.05888757418975076</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="P2">
-        <v>0.05888757418975077</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="Q2">
-        <v>65.96859641042143</v>
+        <v>823.1752753382399</v>
       </c>
       <c r="R2">
-        <v>593.7173676937929</v>
+        <v>7408.57747804416</v>
       </c>
       <c r="S2">
-        <v>0.0006515799106851976</v>
+        <v>0.01375339867346883</v>
       </c>
       <c r="T2">
-        <v>0.0006515799106851977</v>
+        <v>0.01375339867346883</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H3">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I3">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J3">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1167.6026</v>
       </c>
       <c r="O3">
-        <v>0.4265002985877158</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="P3">
-        <v>0.4265002985877159</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="Q3">
-        <v>477.7854488588221</v>
+        <v>2046.743528857866</v>
       </c>
       <c r="R3">
-        <v>4300.069039729399</v>
+        <v>18420.6917597208</v>
       </c>
       <c r="S3">
-        <v>0.004719145427276942</v>
+        <v>0.03419645922086043</v>
       </c>
       <c r="T3">
-        <v>0.004719145427276943</v>
+        <v>0.03419645922086044</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,14 +652,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H4">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I4">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J4">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.7388736666667</v>
+        <v>169.4499613333333</v>
       </c>
       <c r="N4">
-        <v>398.216621</v>
+        <v>508.349884</v>
       </c>
       <c r="O4">
-        <v>0.1454600287453036</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="P4">
-        <v>0.1454600287453037</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="Q4">
-        <v>162.9510819927332</v>
+        <v>891.1095568583413</v>
       </c>
       <c r="R4">
-        <v>1466.559737934599</v>
+        <v>8019.986011725072</v>
       </c>
       <c r="S4">
-        <v>0.001609487805232555</v>
+        <v>0.01488842700259072</v>
       </c>
       <c r="T4">
-        <v>0.001609487805232556</v>
+        <v>0.01488842700259073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H5">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I5">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J5">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>145.898463</v>
+        <v>169.0002543333333</v>
       </c>
       <c r="N5">
-        <v>437.695389</v>
+        <v>507.000763</v>
       </c>
       <c r="O5">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="P5">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="Q5">
-        <v>179.105877202399</v>
+        <v>888.7446214972894</v>
       </c>
       <c r="R5">
-        <v>1611.952894821591</v>
+        <v>7998.701593475604</v>
       </c>
       <c r="S5">
-        <v>0.001769050697163189</v>
+        <v>0.01484891427689064</v>
       </c>
       <c r="T5">
-        <v>0.00176905069716319</v>
+        <v>0.01484891427689064</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,10 +776,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H6">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I6">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J6">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.687468</v>
+        <v>60.30985666666667</v>
       </c>
       <c r="N6">
-        <v>176.062404</v>
+        <v>180.92957</v>
       </c>
       <c r="O6">
-        <v>0.06431183681508679</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="P6">
-        <v>0.0643118368150868</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="Q6">
-        <v>72.04510740409732</v>
+        <v>317.1596453935067</v>
       </c>
       <c r="R6">
-        <v>648.4059666368759</v>
+        <v>2854.43680854156</v>
       </c>
       <c r="S6">
-        <v>0.0007115983543989929</v>
+        <v>0.005299020970279455</v>
       </c>
       <c r="T6">
-        <v>0.0007115983543989931</v>
+        <v>0.005299020970279456</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.227606333333333</v>
+        <v>5.258836</v>
       </c>
       <c r="H7">
-        <v>3.682818999999999</v>
+        <v>15.776508</v>
       </c>
       <c r="I7">
-        <v>0.01106481154386902</v>
+        <v>0.0979781472915271</v>
       </c>
       <c r="J7">
-        <v>0.01106481154386902</v>
+        <v>0.09797814729152711</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>132.282102</v>
+        <v>170.6279296666667</v>
       </c>
       <c r="N7">
-        <v>396.846306</v>
+        <v>511.883789</v>
       </c>
       <c r="O7">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="P7">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="Q7">
-        <v>162.390346201846</v>
+        <v>897.3042991365346</v>
       </c>
       <c r="R7">
-        <v>1461.513115816614</v>
+        <v>8075.738692228811</v>
       </c>
       <c r="S7">
-        <v>0.001603949349112143</v>
+        <v>0.014991927147437</v>
       </c>
       <c r="T7">
-        <v>0.001603949349112144</v>
+        <v>0.01499192714743701</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>103.0872</v>
       </c>
       <c r="I8">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J8">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>53.73758233333333</v>
+        <v>156.53184</v>
       </c>
       <c r="N8">
-        <v>161.212747</v>
+        <v>469.59552</v>
       </c>
       <c r="O8">
-        <v>0.05888757418975076</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="P8">
-        <v>0.05888757418975077</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="Q8">
-        <v>1846.552299170933</v>
+        <v>5378.809698816</v>
       </c>
       <c r="R8">
-        <v>16618.9706925384</v>
+        <v>48409.28728934399</v>
       </c>
       <c r="S8">
-        <v>0.01823862333956329</v>
+        <v>0.08986775525557465</v>
       </c>
       <c r="T8">
-        <v>0.01823862333956329</v>
+        <v>0.08986775525557465</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>103.0872</v>
       </c>
       <c r="I9">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J9">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1167.6026</v>
       </c>
       <c r="O9">
-        <v>0.4265002985877158</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="P9">
-        <v>0.4265002985877159</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="Q9">
         <v>13373.87586074667</v>
@@ -1013,10 +1013,10 @@
         <v>120364.88274672</v>
       </c>
       <c r="S9">
-        <v>0.1320954107412783</v>
+        <v>0.2234472439016723</v>
       </c>
       <c r="T9">
-        <v>0.1320954107412783</v>
+        <v>0.2234472439016723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>103.0872</v>
       </c>
       <c r="I10">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J10">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.7388736666667</v>
+        <v>169.4499613333333</v>
       </c>
       <c r="N10">
-        <v>398.216621</v>
+        <v>508.349884</v>
       </c>
       <c r="O10">
-        <v>0.1454600287453036</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="P10">
-        <v>0.1454600287453037</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="Q10">
-        <v>4561.226272483467</v>
+        <v>5822.707351320533</v>
       </c>
       <c r="R10">
-        <v>41051.0364523512</v>
+        <v>52404.3661618848</v>
       </c>
       <c r="S10">
-        <v>0.04505179083619627</v>
+        <v>0.09728428192737394</v>
       </c>
       <c r="T10">
-        <v>0.04505179083619628</v>
+        <v>0.09728428192737394</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,10 +1107,10 @@
         <v>103.0872</v>
       </c>
       <c r="I11">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J11">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>145.898463</v>
+        <v>169.0002543333333</v>
       </c>
       <c r="N11">
-        <v>437.695389</v>
+        <v>507.000763</v>
       </c>
       <c r="O11">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="P11">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="Q11">
-        <v>5013.421344991199</v>
+        <v>5807.254339503734</v>
       </c>
       <c r="R11">
-        <v>45120.79210492079</v>
+        <v>52265.2890555336</v>
       </c>
       <c r="S11">
-        <v>0.04951817698035151</v>
+        <v>0.09702609701999204</v>
       </c>
       <c r="T11">
-        <v>0.04951817698035151</v>
+        <v>0.09702609701999204</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
@@ -1169,10 +1169,10 @@
         <v>103.0872</v>
       </c>
       <c r="I12">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J12">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>58.687468</v>
+        <v>60.30985666666667</v>
       </c>
       <c r="N12">
-        <v>176.062404</v>
+        <v>180.92957</v>
       </c>
       <c r="O12">
-        <v>0.06431183681508679</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="P12">
-        <v>0.0643118368150868</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="Q12">
-        <v>2016.6422504032</v>
+        <v>2072.391418722667</v>
       </c>
       <c r="R12">
-        <v>18149.7802536288</v>
+        <v>18651.522768504</v>
       </c>
       <c r="S12">
-        <v>0.01991862263108773</v>
+        <v>0.03462497750246076</v>
       </c>
       <c r="T12">
-        <v>0.01991862263108773</v>
+        <v>0.03462497750246076</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1231,10 +1231,10 @@
         <v>103.0872</v>
       </c>
       <c r="I13">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="J13">
-        <v>0.3097193863138902</v>
+        <v>0.6402109304207948</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>132.282102</v>
+        <v>170.6279296666667</v>
       </c>
       <c r="N13">
-        <v>396.846306</v>
+        <v>511.883789</v>
       </c>
       <c r="O13">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="P13">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="Q13">
-        <v>4545.530501764801</v>
+        <v>5863.185170377867</v>
       </c>
       <c r="R13">
-        <v>40909.7745158832</v>
+        <v>52768.66653340079</v>
       </c>
       <c r="S13">
-        <v>0.04489676178541312</v>
+        <v>0.097960574813721</v>
       </c>
       <c r="T13">
-        <v>0.04489676178541313</v>
+        <v>0.097960574813721</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H14">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I14">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J14">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>53.73758233333333</v>
+        <v>156.53184</v>
       </c>
       <c r="N14">
-        <v>161.212747</v>
+        <v>469.59552</v>
       </c>
       <c r="O14">
-        <v>0.05888757418975076</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="P14">
-        <v>0.05888757418975077</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="Q14">
-        <v>2.208865409284222</v>
+        <v>2197.40941439488</v>
       </c>
       <c r="R14">
-        <v>19.879788683558</v>
+        <v>19776.68472955392</v>
       </c>
       <c r="S14">
-        <v>2.181723432681174E-05</v>
+        <v>0.03671374569964871</v>
       </c>
       <c r="T14">
-        <v>2.181723432681174E-05</v>
+        <v>0.03671374569964871</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H15">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I15">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J15">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1167.6026</v>
       </c>
       <c r="O15">
-        <v>0.4265002985877158</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="P15">
-        <v>0.4265002985877159</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="Q15">
-        <v>15.99797189071111</v>
+        <v>5463.640167418843</v>
       </c>
       <c r="R15">
-        <v>143.9817470164</v>
+        <v>49172.7615067696</v>
       </c>
       <c r="S15">
-        <v>0.0001580139287918383</v>
+        <v>0.09128508068954458</v>
       </c>
       <c r="T15">
-        <v>0.0001580139287918383</v>
+        <v>0.09128508068954461</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H16">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I16">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J16">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.7388736666667</v>
+        <v>169.4499613333333</v>
       </c>
       <c r="N16">
-        <v>398.216621</v>
+        <v>508.349884</v>
       </c>
       <c r="O16">
-        <v>0.1454600287453036</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="P16">
-        <v>0.1454600287453037</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="Q16">
-        <v>5.456187155777112</v>
+        <v>2378.755276260184</v>
       </c>
       <c r="R16">
-        <v>49.105684401994</v>
+        <v>21408.79748634166</v>
       </c>
       <c r="S16">
-        <v>5.389142915099747E-05</v>
+        <v>0.03974362525354143</v>
       </c>
       <c r="T16">
-        <v>5.389142915099749E-05</v>
+        <v>0.03974362525354144</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H17">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I17">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J17">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>145.898463</v>
+        <v>169.0002543333333</v>
       </c>
       <c r="N17">
-        <v>437.695389</v>
+        <v>507.000763</v>
       </c>
       <c r="O17">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="P17">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="Q17">
-        <v>5.997107688794</v>
+        <v>2372.442245023094</v>
       </c>
       <c r="R17">
-        <v>53.973969199146</v>
+        <v>21351.98020520784</v>
       </c>
       <c r="S17">
-        <v>5.923416754121817E-05</v>
+        <v>0.03963814876749647</v>
       </c>
       <c r="T17">
-        <v>5.923416754121819E-05</v>
+        <v>0.03963814876749647</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>27</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H18">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I18">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J18">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>58.687468</v>
+        <v>60.30985666666667</v>
       </c>
       <c r="N18">
-        <v>176.062404</v>
+        <v>180.92957</v>
       </c>
       <c r="O18">
-        <v>0.06431183681508679</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="P18">
-        <v>0.0643118368150868</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="Q18">
-        <v>2.412328809650667</v>
+        <v>846.635718459191</v>
       </c>
       <c r="R18">
-        <v>21.710959286856</v>
+        <v>7619.72146613272</v>
       </c>
       <c r="S18">
-        <v>2.382686726509161E-05</v>
+        <v>0.01414536966308109</v>
       </c>
       <c r="T18">
-        <v>2.382686726509162E-05</v>
+        <v>0.01414536966308109</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,31 +1582,31 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.04110466666666667</v>
+        <v>14.03809866666666</v>
       </c>
       <c r="H19">
-        <v>0.123314</v>
+        <v>42.114296</v>
       </c>
       <c r="I19">
-        <v>0.0003704896088351517</v>
+        <v>0.2615458817988727</v>
       </c>
       <c r="J19">
-        <v>0.0003704896088351518</v>
+        <v>0.2615458817988728</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>132.282102</v>
+        <v>170.6279296666667</v>
       </c>
       <c r="N19">
-        <v>396.846306</v>
+        <v>511.883789</v>
       </c>
       <c r="O19">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="P19">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="Q19">
-        <v>5.437411708676001</v>
+        <v>2395.291711949727</v>
       </c>
       <c r="R19">
-        <v>48.93670537808401</v>
+        <v>21557.62540754754</v>
       </c>
       <c r="S19">
-        <v>5.370598175919448E-05</v>
+        <v>0.0400199117255604</v>
       </c>
       <c r="T19">
-        <v>5.37059817591945E-05</v>
+        <v>0.04001991172556042</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H20">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I20">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J20">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>53.73758233333333</v>
+        <v>156.53184</v>
       </c>
       <c r="N20">
-        <v>161.212747</v>
+        <v>469.59552</v>
       </c>
       <c r="O20">
-        <v>0.05888757418975076</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="P20">
-        <v>0.05888757418975077</v>
+        <v>0.1403721039197297</v>
       </c>
       <c r="Q20">
-        <v>4043.14945423351</v>
+        <v>2.22676977856</v>
       </c>
       <c r="R20">
-        <v>36388.34508810159</v>
+        <v>20.04092800704</v>
       </c>
       <c r="S20">
-        <v>0.0399346826160485</v>
+        <v>3.720429103751154E-05</v>
       </c>
       <c r="T20">
-        <v>0.03993468261604851</v>
+        <v>3.720429103751154E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H21">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I21">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J21">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1167.6026</v>
       </c>
       <c r="O21">
-        <v>0.4265002985877158</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="P21">
-        <v>0.4265002985877159</v>
+        <v>0.3490212885850074</v>
       </c>
       <c r="Q21">
-        <v>29282.99345306502</v>
+        <v>5.536641795577777</v>
       </c>
       <c r="R21">
-        <v>263546.9410775852</v>
+        <v>49.8297761602</v>
       </c>
       <c r="S21">
-        <v>0.2892317147394867</v>
+        <v>9.250477293002107E-05</v>
       </c>
       <c r="T21">
-        <v>0.2892317147394867</v>
+        <v>9.250477293002107E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>26</v>
       </c>
-      <c r="D22" t="s">
-        <v>22</v>
-      </c>
       <c r="E22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H22">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I22">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J22">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.7388736666667</v>
+        <v>169.4499613333333</v>
       </c>
       <c r="N22">
-        <v>398.216621</v>
+        <v>508.349884</v>
       </c>
       <c r="O22">
-        <v>0.1454600287453036</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="P22">
-        <v>0.1454600287453037</v>
+        <v>0.1519566088373896</v>
       </c>
       <c r="Q22">
-        <v>9987.109231895061</v>
+        <v>2.410538666607556</v>
       </c>
       <c r="R22">
-        <v>89883.98308705556</v>
+        <v>21.694847999468</v>
       </c>
       <c r="S22">
-        <v>0.09864390172614748</v>
+        <v>4.027465388345534E-05</v>
       </c>
       <c r="T22">
-        <v>0.0986439017261475</v>
+        <v>4.027465388345534E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H23">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I23">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J23">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>145.898463</v>
+        <v>169.0002543333333</v>
       </c>
       <c r="N23">
-        <v>437.695389</v>
+        <v>507.000763</v>
       </c>
       <c r="O23">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="P23">
-        <v>0.1598807797267379</v>
+        <v>0.1515533278324679</v>
       </c>
       <c r="Q23">
-        <v>10977.22051194794</v>
+        <v>2.404141284727889</v>
       </c>
       <c r="R23">
-        <v>98794.98460753149</v>
+        <v>21.637271562551</v>
       </c>
       <c r="S23">
-        <v>0.1084233521696823</v>
+        <v>4.016776808878503E-05</v>
       </c>
       <c r="T23">
-        <v>0.1084233521696823</v>
+        <v>4.016776808878503E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
         <v>27</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H24">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I24">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J24">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>58.687468</v>
+        <v>60.30985666666667</v>
       </c>
       <c r="N24">
-        <v>176.062404</v>
+        <v>180.92957</v>
       </c>
       <c r="O24">
-        <v>0.06431183681508679</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="P24">
-        <v>0.0643118368150868</v>
+        <v>0.05408370250677011</v>
       </c>
       <c r="Q24">
-        <v>4415.572750234445</v>
+        <v>0.8579479176544444</v>
       </c>
       <c r="R24">
-        <v>39740.15475211001</v>
+        <v>7.721531258890001</v>
       </c>
       <c r="S24">
-        <v>0.04361315314823404</v>
+        <v>1.433437094879401E-05</v>
       </c>
       <c r="T24">
-        <v>0.04361315314823406</v>
+        <v>1.433437094879401E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,31 +1954,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>75.23876733333334</v>
+        <v>0.01422566666666667</v>
       </c>
       <c r="H25">
-        <v>225.716302</v>
+        <v>0.042677</v>
       </c>
       <c r="I25">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="J25">
-        <v>0.6781512596760869</v>
+        <v>0.0002650404888052858</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,400 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>132.282102</v>
+        <v>170.6279296666667</v>
       </c>
       <c r="N25">
-        <v>396.846306</v>
+        <v>511.883789</v>
       </c>
       <c r="O25">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="P25">
-        <v>0.1449594819354051</v>
+        <v>0.1530129683186351</v>
       </c>
       <c r="Q25">
-        <v>9952.742294742269</v>
+        <v>2.427296051461444</v>
       </c>
       <c r="R25">
-        <v>89574.68065268043</v>
+        <v>21.845664463153</v>
       </c>
       <c r="S25">
-        <v>0.09830445527648794</v>
+        <v>4.055463191671877E-05</v>
       </c>
       <c r="T25">
-        <v>0.09830445527648797</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.077003</v>
-      </c>
-      <c r="H26">
-        <v>0.231009</v>
-      </c>
-      <c r="I26">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J26">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>53.73758233333333</v>
-      </c>
-      <c r="N26">
-        <v>161.212747</v>
-      </c>
-      <c r="O26">
-        <v>0.05888757418975076</v>
-      </c>
-      <c r="P26">
-        <v>0.05888757418975077</v>
-      </c>
-      <c r="Q26">
-        <v>4.137955052413666</v>
-      </c>
-      <c r="R26">
-        <v>37.241595471723</v>
-      </c>
-      <c r="S26">
-        <v>4.087108912696411E-05</v>
-      </c>
-      <c r="T26">
-        <v>4.087108912696412E-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.077003</v>
-      </c>
-      <c r="H27">
-        <v>0.231009</v>
-      </c>
-      <c r="I27">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J27">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>389.2008666666666</v>
-      </c>
-      <c r="N27">
-        <v>1167.6026</v>
-      </c>
-      <c r="O27">
-        <v>0.4265002985877158</v>
-      </c>
-      <c r="P27">
-        <v>0.4265002985877159</v>
-      </c>
-      <c r="Q27">
-        <v>29.96963433593333</v>
-      </c>
-      <c r="R27">
-        <v>269.7267090234</v>
-      </c>
-      <c r="S27">
-        <v>0.0002960137508820877</v>
-      </c>
-      <c r="T27">
-        <v>0.0002960137508820878</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.077003</v>
-      </c>
-      <c r="H28">
-        <v>0.231009</v>
-      </c>
-      <c r="I28">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J28">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>132.7388736666667</v>
-      </c>
-      <c r="N28">
-        <v>398.216621</v>
-      </c>
-      <c r="O28">
-        <v>0.1454600287453036</v>
-      </c>
-      <c r="P28">
-        <v>0.1454600287453037</v>
-      </c>
-      <c r="Q28">
-        <v>10.22129148895433</v>
-      </c>
-      <c r="R28">
-        <v>91.99162340058902</v>
-      </c>
-      <c r="S28">
-        <v>0.0001009569485763399</v>
-      </c>
-      <c r="T28">
-        <v>0.0001009569485763399</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.077003</v>
-      </c>
-      <c r="H29">
-        <v>0.231009</v>
-      </c>
-      <c r="I29">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J29">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>145.898463</v>
-      </c>
-      <c r="N29">
-        <v>437.695389</v>
-      </c>
-      <c r="O29">
-        <v>0.1598807797267379</v>
-      </c>
-      <c r="P29">
-        <v>0.1598807797267379</v>
-      </c>
-      <c r="Q29">
-        <v>11.234619346389</v>
-      </c>
-      <c r="R29">
-        <v>101.111574117501</v>
-      </c>
-      <c r="S29">
-        <v>0.0001109657119996859</v>
-      </c>
-      <c r="T29">
-        <v>0.0001109657119996859</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.077003</v>
-      </c>
-      <c r="H30">
-        <v>0.231009</v>
-      </c>
-      <c r="I30">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J30">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>58.687468</v>
-      </c>
-      <c r="N30">
-        <v>176.062404</v>
-      </c>
-      <c r="O30">
-        <v>0.06431183681508679</v>
-      </c>
-      <c r="P30">
-        <v>0.0643118368150868</v>
-      </c>
-      <c r="Q30">
-        <v>4.519111098404</v>
-      </c>
-      <c r="R30">
-        <v>40.671999885636</v>
-      </c>
-      <c r="S30">
-        <v>4.463581410092567E-05</v>
-      </c>
-      <c r="T30">
-        <v>4.463581410092569E-05</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.077003</v>
-      </c>
-      <c r="H31">
-        <v>0.231009</v>
-      </c>
-      <c r="I31">
-        <v>0.0006940528573187113</v>
-      </c>
-      <c r="J31">
-        <v>0.0006940528573187114</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>132.282102</v>
-      </c>
-      <c r="N31">
-        <v>396.846306</v>
-      </c>
-      <c r="O31">
-        <v>0.1449594819354051</v>
-      </c>
-      <c r="P31">
-        <v>0.1449594819354051</v>
-      </c>
-      <c r="Q31">
-        <v>10.186118700306</v>
-      </c>
-      <c r="R31">
-        <v>91.67506830275401</v>
-      </c>
-      <c r="S31">
-        <v>0.000100609542632708</v>
-      </c>
-      <c r="T31">
-        <v>0.0001006095426327081</v>
+        <v>4.055463191671877E-05</v>
       </c>
     </row>
   </sheetData>
